--- a/Database Material/Spreadsheets/languages.xlsx
+++ b/Database Material/Spreadsheets/languages.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luke/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/personal website/personal-website/personal-website/Database Material/Spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68BA6DE5-23EA-6B47-9D79-D1EE91C0124A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{35A710B5-0FB7-674C-ABE7-48BCE232B63E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18500" yWindow="2280" windowWidth="16220" windowHeight="16940"/>
+    <workbookView xWindow="22940" yWindow="1740" windowWidth="10920" windowHeight="17440"/>
   </bookViews>
   <sheets>
     <sheet name="languages" sheetId="1" r:id="rId1"/>
@@ -43,9 +43,6 @@
     <t>SQL</t>
   </si>
   <si>
-    <t>Wordpress</t>
-  </si>
-  <si>
     <t>Python</t>
   </si>
   <si>
@@ -53,6 +50,9 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>WordPress</t>
   </si>
 </sst>
 </file>
@@ -896,7 +896,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -962,7 +962,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -970,7 +970,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -978,7 +978,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -986,7 +986,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
